--- a/Photobioreactor/Reactor_rev2/Parts_05.06.23.xlsx
+++ b/Photobioreactor/Reactor_rev2/Parts_05.06.23.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AB01B9-44DA-44E3-B40C-9DCE7C94552A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2DCE73-6CFA-40B4-B82E-36A3D895713F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Breadboard</t>
   </si>
@@ -161,6 +161,12 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>Cable short</t>
+  </si>
+  <si>
+    <t>Cable long0</t>
   </si>
 </sst>
 </file>
@@ -487,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -691,23 +697,17 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -715,7 +715,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -739,7 +739,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -771,7 +771,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -811,15 +811,15 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -827,9 +827,25 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>41</v>
       </c>
-      <c r="C45">
+      <c r="C47">
         <v>1</v>
       </c>
     </row>
